--- a/content/notes/job/prep.xlsx
+++ b/content/notes/job/prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128636A9-E6B1-FA43-A02D-0F3041B0ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777D596-8EA7-A245-B97F-E618D170F945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>Company</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>Backend Engineer</t>
+  </si>
+  <si>
+    <t>Coding Test</t>
+  </si>
+  <si>
+    <t>Cloud Platform Engineer (Kafka)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -611,147 +620,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2F7B5D-2E12-5E44-B1AF-91969B1C2AE4}">
-  <dimension ref="B1:AG37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <pane xSplit="1" ySplit="35" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>45931</v>
+      </c>
       <c r="C1" s="1">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D1" s="1">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="E1" s="1">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="F1" s="1">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="G1" s="1">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="H1" s="1">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="I1" s="1">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="J1" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="K1" s="1">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="L1" s="1">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="M1" s="1">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="N1" s="1">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="O1" s="1">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="P1" s="1">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="Q1" s="1">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="R1" s="1">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="S1" s="1">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="T1" s="1">
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="U1" s="1">
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="V1" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="W1" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="X1" s="1">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="Y1" s="1">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="Z1" s="1">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="AA1" s="1">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="AB1" s="1">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="AC1" s="1">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="AD1" s="1">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="AE1" s="1">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="AF1" s="1">
-        <v>45960</v>
-      </c>
-      <c r="AG1" s="1">
         <v>45961</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
       <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
         <v>9</v>
       </c>
       <c r="S8" t="s">
@@ -760,159 +775,169 @@
       <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="V17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
       <c r="L19" t="s">
         <v>9</v>
       </c>
-      <c r="M19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
       <c r="I21" t="s">
         <v>9</v>
       </c>
       <c r="J21" t="s">
         <v>9</v>
       </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="T21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="W22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="W36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -943,7 +968,6 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -953,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FACD5-21B8-2144-A1CC-B5C0A67BE597}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,7 +988,7 @@
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -978,19 +1002,22 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1000,11 +1027,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1020,11 +1047,14 @@
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1034,11 +1064,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1048,11 +1078,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1062,11 +1092,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1082,11 +1112,14 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1102,11 +1135,14 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1116,11 +1152,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1130,11 +1166,11 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -1150,11 +1186,14 @@
       <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -1164,11 +1203,11 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -1184,25 +1223,37 @@
       <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -1212,11 +1263,11 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>65</v>
       </c>
@@ -1226,8 +1277,11 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -1236,6 +1290,15 @@
       </c>
       <c r="D18" t="s">
         <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/content/notes/job/prep.xlsx
+++ b/content/notes/job/prep.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777D596-8EA7-A245-B97F-E618D170F945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1520A0-DA34-B147-9D5E-7D9CE29D0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
   </bookViews>
   <sheets>
-    <sheet name="study" sheetId="1" r:id="rId1"/>
-    <sheet name="applied" sheetId="2" r:id="rId2"/>
+    <sheet name="applied" sheetId="2" r:id="rId1"/>
+    <sheet name="oct" sheetId="1" r:id="rId2"/>
+    <sheet name="nov" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Company</t>
   </si>
@@ -251,7 +252,10 @@
     <t>Cloud Platform Engineer (Kafka)</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -287,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -295,16 +299,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -619,14 +643,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2F7B5D-2E12-5E44-B1AF-91969B1C2AE4}">
-  <dimension ref="A1:AF37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FACD5-21B8-2144-A1CC-B5C0A67BE597}">
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="35" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2F7B5D-2E12-5E44-B1AF-91969B1C2AE4}">
+  <dimension ref="A1:AH38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="35" topLeftCell="Q36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +1002,7 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>45931</v>
       </c>
@@ -728,215 +1096,377 @@
       <c r="AF1" s="1">
         <v>45961</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>SUM(B4:AF4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="AH5" s="4">
+        <f t="shared" ref="AH5:AH36" si="0">SUM(B5:AF5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="AH6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="AH10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="AH11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="AH12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="AH13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="AH14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="AH16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="AH18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="AH22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="AH23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="AH24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="AH25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="AH26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="AH28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="AH31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="AH32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="AH33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="AH34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -969,336 +1499,698 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4">
+        <f>SUM(B4:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:H38" si="1">SUM(C4:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" ref="I38:AF38" si="2">SUM(I4:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB38" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FACD5-21B8-2144-A1CC-B5C0A67BE597}">
-  <dimension ref="B2:J18"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002393DD-0FCD-2149-B91D-D58DA8877A7D}">
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <pane xSplit="1" ySplit="35" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45963</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45964</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45965</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45966</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45967</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45968</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45969</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45970</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45971</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45972</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45973</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45974</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45975</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45976</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45977</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45978</v>
+      </c>
+      <c r="S1" s="1">
+        <v>45979</v>
+      </c>
+      <c r="T1" s="1">
+        <v>45980</v>
+      </c>
+      <c r="U1" s="1">
+        <v>45981</v>
+      </c>
+      <c r="V1" s="1">
+        <v>45982</v>
+      </c>
+      <c r="W1" s="1">
+        <v>45983</v>
+      </c>
+      <c r="X1" s="1">
+        <v>45984</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>45985</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45986</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>45987</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>45988</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45989</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>45990</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>45991</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="shared" ref="AG4:AG36" si="0">SUM(B4:AE4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4">
+        <f>SUM(B4:B36)</f>
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:H38" si="1">SUM(C4:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" ref="I38:AE38" si="2">SUM(I4:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/content/notes/job/prep.xlsx
+++ b/content/notes/job/prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1520A0-DA34-B147-9D5E-7D9CE29D0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36B65D-0E83-7345-A4F5-99D343E62341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="2" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
   </bookViews>
   <sheets>
     <sheet name="applied" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>Company</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Low Level Design Problems</t>
+  </si>
+  <si>
+    <t>CIS1912</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FACD5-21B8-2144-A1CC-B5C0A67BE597}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1636,13 +1642,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002393DD-0FCD-2149-B91D-D58DA8877A7D}">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="35" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="37" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,6 +1753,9 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
+      <c r="P3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1755,9 +1764,12 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
       <c r="AG4" s="4">
-        <f t="shared" ref="AG4:AG36" si="0">SUM(B4:AE4)</f>
-        <v>1</v>
+        <f t="shared" ref="AG4:AG38" si="0">SUM(B4:AE4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1800,9 +1812,12 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="AG9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1843,85 +1858,85 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AG15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="AG16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="AG17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="AG18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="AG19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AG19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AG20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="AG21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG23" s="4">
         <f t="shared" si="0"/>
@@ -1930,7 +1945,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="0"/>
@@ -1939,7 +1954,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="0"/>
@@ -1948,23 +1963,23 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AG27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="AG28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1972,23 +1987,23 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AG30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AG31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1996,32 +2011,41 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AG32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="AG33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AG33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AG35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2029,7 +2053,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="AG36" s="4">
         <f t="shared" si="0"/>
@@ -2037,158 +2061,173 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
+      <c r="AG37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="4">
-        <f>SUM(B4:B36)</f>
+      <c r="B40" s="4">
+        <f>SUM(B4:B38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" ref="C38:H38" si="1">SUM(C4:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:H40" si="1">SUM(C4:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" ref="I38:AE38" si="2">SUM(I4:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="4">
+      <c r="I40" s="4">
+        <f t="shared" ref="I40:AE40" si="2">SUM(I4:I38)</f>
+        <v>2</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/content/notes/job/prep.xlsx
+++ b/content/notes/job/prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravi/programs/rk1165.github.io/content/notes/job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36B65D-0E83-7345-A4F5-99D343E62341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1E4D1-21B4-4048-909E-0E141D4AE449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="2" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" activeTab="2" xr2:uid="{D6A66FE8-40BD-C44E-A5ED-63257F4B8679}"/>
   </bookViews>
   <sheets>
     <sheet name="applied" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Company</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,6 +981,9 @@
       </c>
       <c r="G18" t="s">
         <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
       </c>
       <c r="J18" t="s">
         <v>66</v>
@@ -1645,10 +1648,10 @@
   <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="37" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="37" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomRight" activeCell="AG33" sqref="AG33:AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1753,9 +1756,6 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="P3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1767,9 +1767,12 @@
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
       <c r="AG4" s="4">
         <f t="shared" ref="AG4:AG38" si="0">SUM(B4:AE4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1863,7 +1866,10 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2013,9 +2019,12 @@
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
       <c r="AG32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
@@ -2040,7 +2049,10 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="AG34" s="4"/>
+      <c r="AG34" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
@@ -2168,8 +2180,8 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(P4:P38)</f>
+        <v>1</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="2"/>
@@ -2205,7 +2217,7 @@
       </c>
       <c r="Y40" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="4">
         <f t="shared" si="2"/>
